--- a/Inventaire doc techniques.xlsx
+++ b/Inventaire doc techniques.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t xml:space="preserve">Objet</t>
   </si>
@@ -61,6 +61,12 @@
     <t xml:space="preserve">http://wiki.sunfounder.cc/index.php?title=Bluetooth_4.0_HM-10_Master_Slave_Module </t>
   </si>
   <si>
+    <t xml:space="preserve">Iduino BT-Board HC-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.aranacorp.com/fr/votre-arduino-communique-avec-le-module-hc-05/ </t>
+  </si>
+  <si>
     <t xml:space="preserve">Servomoteur</t>
   </si>
   <si>
@@ -85,25 +91,7 @@
     <t xml:space="preserve">HN-GH12-1634T </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.gotronic.fr/pj-496.pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t xml:space="preserve">https://www.gotronic.fr/pj-496.pdf </t>
   </si>
 </sst>
 </file>
@@ -215,10 +203,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -287,44 +275,58 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="0" t="n">
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -332,9 +334,10 @@
     <hyperlink ref="D2" r:id="rId1" display="https://store.arduino.cc/products/arduino-due "/>
     <hyperlink ref="D3" r:id="rId2" display="https://datasheetspdf.com/pdf-file/1251016/ETC/DYP-ME007/1 "/>
     <hyperlink ref="D4" r:id="rId3" display="http://wiki.sunfounder.cc/index.php?title=Bluetooth_4.0_HM-10_Master_Slave_Module "/>
-    <hyperlink ref="D5" r:id="rId4" display="http://www.ee.ic.ac.uk/pcheung/teaching/DE1_EE/stores/sg90_datasheet.pdf "/>
-    <hyperlink ref="D6" r:id="rId5" display="https://www.robotshop.com/content/ZIP/documentation-sabertooth-2x12-rc.zip "/>
-    <hyperlink ref="D7" r:id="rId6" display="https://www.gotronic.fr/pj-496.pdf"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.aranacorp.com/fr/votre-arduino-communique-avec-le-module-hc-05/"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://www.ee.ic.ac.uk/pcheung/teaching/DE1_EE/stores/sg90_datasheet.pdf "/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.robotshop.com/content/ZIP/documentation-sabertooth-2x12-rc.zip "/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.gotronic.fr/pj-496.pdf "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
